--- a/GM_Underperformers_ten_west.xlsx
+++ b/GM_Underperformers_ten_west.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>ASIN</t>
   </si>
@@ -31,6 +31,9 @@
     <t>No.</t>
   </si>
   <si>
+    <t>B005NHVDSS</t>
+  </si>
+  <si>
     <t>B0DJYMQQJX</t>
   </si>
   <si>
@@ -52,6 +55,12 @@
     <t>B001F79LKW</t>
   </si>
   <si>
+    <t>B0DMRTV6HM</t>
+  </si>
+  <si>
+    <t>B0DMS5V6R8</t>
+  </si>
+  <si>
     <t>B0DMSGQ61F</t>
   </si>
   <si>
@@ -64,75 +73,381 @@
     <t>B0DMS5RXDG</t>
   </si>
   <si>
+    <t>B001CQWC6Q</t>
+  </si>
+  <si>
+    <t>B007MPJ8YU</t>
+  </si>
+  <si>
+    <t>B0BS56GJN5</t>
+  </si>
+  <si>
     <t>B0BNLY4LYX</t>
   </si>
   <si>
+    <t>B0CCSVQZJL</t>
+  </si>
+  <si>
+    <t>B0C5GGG9FK</t>
+  </si>
+  <si>
     <t>B0BXVM3H2H</t>
   </si>
   <si>
     <t>B078SV48C6</t>
   </si>
   <si>
+    <t>B0D94S9KNV</t>
+  </si>
+  <si>
+    <t>B0BXVNKFK2</t>
+  </si>
+  <si>
     <t>B0BXVM72LM</t>
   </si>
   <si>
+    <t>B0DWBC1J93</t>
+  </si>
+  <si>
+    <t>B0DWBNLNF3</t>
+  </si>
+  <si>
     <t>B08746GTC8</t>
   </si>
   <si>
+    <t>B01MQCP65M</t>
+  </si>
+  <si>
+    <t>B01DZIESAQ</t>
+  </si>
+  <si>
+    <t>B0CCSWJ337</t>
+  </si>
+  <si>
+    <t>B0CVLG5Q66</t>
+  </si>
+  <si>
     <t>B0CVLG1M6L</t>
   </si>
   <si>
+    <t>B0125ZPSN6</t>
+  </si>
+  <si>
+    <t>B07SMTSWTG</t>
+  </si>
+  <si>
+    <t>B0CVLHZ3L2</t>
+  </si>
+  <si>
     <t>B0CCSWNL5P</t>
   </si>
   <si>
     <t>B084LMSK7D</t>
   </si>
   <si>
+    <t>B0CDZZFJCH</t>
+  </si>
+  <si>
+    <t>B0FH324VCY</t>
+  </si>
+  <si>
+    <t>B0FH32Z7JT</t>
+  </si>
+  <si>
+    <t>B0FH33PX91</t>
+  </si>
+  <si>
     <t>B0CCSZCBBQ</t>
   </si>
   <si>
+    <t>B0CDZR6Z47</t>
+  </si>
+  <si>
+    <t>B0BXQ3P779</t>
+  </si>
+  <si>
+    <t>B0BFJLQKRN</t>
+  </si>
+  <si>
+    <t>B0BV18SD23</t>
+  </si>
+  <si>
+    <t>B0BV19KCFW</t>
+  </si>
+  <si>
+    <t>B0B75KHMZK</t>
+  </si>
+  <si>
+    <t>B07GX4JCVH</t>
+  </si>
+  <si>
+    <t>B0BXZ6JXFN</t>
+  </si>
+  <si>
+    <t>B07B3X6FZC</t>
+  </si>
+  <si>
+    <t>B0CVLHPTDP</t>
+  </si>
+  <si>
+    <t>B0CJ5WQGR9</t>
+  </si>
+  <si>
+    <t>B09TTWR7M2</t>
+  </si>
+  <si>
     <t>B09YL3HR3N</t>
   </si>
   <si>
+    <t>B09TTRF1BW</t>
+  </si>
+  <si>
+    <t>B09435KBH4</t>
+  </si>
+  <si>
+    <t>B09GFG7VYL</t>
+  </si>
+  <si>
+    <t>B07KMYGXB9</t>
+  </si>
+  <si>
+    <t>B0C5GLX9PH</t>
+  </si>
+  <si>
     <t>B0FFC6NG9B</t>
   </si>
   <si>
+    <t>B0BS4J6S7J</t>
+  </si>
+  <si>
+    <t>B0CCSZ8V93</t>
+  </si>
+  <si>
     <t>B00S33A6AU</t>
   </si>
   <si>
+    <t>B0D68DLFHD</t>
+  </si>
+  <si>
+    <t>B0D68TC7RG</t>
+  </si>
+  <si>
+    <t>B0FFD2CF3B</t>
+  </si>
+  <si>
+    <t>B0BRBSQK1J</t>
+  </si>
+  <si>
+    <t>B0CCSZH868</t>
+  </si>
+  <si>
+    <t>B00DT3DP3Y</t>
+  </si>
+  <si>
     <t>B09GPSX3NX</t>
   </si>
   <si>
+    <t>B0C5G4T52W</t>
+  </si>
+  <si>
+    <t>B018X7FF8S</t>
+  </si>
+  <si>
+    <t>B0BFJJXQJ9</t>
+  </si>
+  <si>
     <t>B0CW6LYTCL</t>
   </si>
   <si>
+    <t>B084LMSK7T</t>
+  </si>
+  <si>
+    <t>B084LMB626</t>
+  </si>
+  <si>
+    <t>B0D68TBMDH</t>
+  </si>
+  <si>
     <t>B0D699P9FQ</t>
   </si>
   <si>
+    <t>B0857366Z3</t>
+  </si>
+  <si>
+    <t>B0CP6C5CWH</t>
+  </si>
+  <si>
+    <t>B0CDZZLWF7</t>
+  </si>
+  <si>
+    <t>B09YHNZ16J</t>
+  </si>
+  <si>
+    <t>B0CDZN453F</t>
+  </si>
+  <si>
+    <t>B0BSHHVK41</t>
+  </si>
+  <si>
     <t>B0BRBT7XVT</t>
   </si>
   <si>
+    <t>B0BVXYFD1R</t>
+  </si>
+  <si>
+    <t>B0D68VGCFT</t>
+  </si>
+  <si>
+    <t>B0BVY8BB9K</t>
+  </si>
+  <si>
+    <t>B0DCK7CXVM</t>
+  </si>
+  <si>
     <t>B0DJYNNMN4</t>
   </si>
   <si>
+    <t>B005Y6OGRI</t>
+  </si>
+  <si>
+    <t>B0CJLYXTL2</t>
+  </si>
+  <si>
+    <t>B0CNH9X99J</t>
+  </si>
+  <si>
+    <t>B0CNH94DHZ</t>
+  </si>
+  <si>
+    <t>B0CNH8L731</t>
+  </si>
+  <si>
+    <t>B0CHQWFBDX</t>
+  </si>
+  <si>
+    <t>B0BRBTF5GK</t>
+  </si>
+  <si>
+    <t>B0CHQYJPLW</t>
+  </si>
+  <si>
+    <t>B0C1PXB8XZ</t>
+  </si>
+  <si>
+    <t>B0C1PPFQ2V</t>
+  </si>
+  <si>
+    <t>B07FNNS1NQ</t>
+  </si>
+  <si>
     <t>B0DMRV12HR</t>
   </si>
   <si>
+    <t>B0CMW9BVGJ</t>
+  </si>
+  <si>
+    <t>B0CNH7JYNW</t>
+  </si>
+  <si>
+    <t>B0CNH8P1XG</t>
+  </si>
+  <si>
+    <t>B0CNH85T4K</t>
+  </si>
+  <si>
+    <t>B0CJL47JNK</t>
+  </si>
+  <si>
     <t>B002IOO41W</t>
   </si>
   <si>
+    <t>B07GK231JH</t>
+  </si>
+  <si>
+    <t>B07GJJTV3F</t>
+  </si>
+  <si>
+    <t>B0CT4656SX</t>
+  </si>
+  <si>
+    <t>B07QSYGD75</t>
+  </si>
+  <si>
+    <t>B07QNS6M6D</t>
+  </si>
+  <si>
+    <t>B0BSHJ3D24</t>
+  </si>
+  <si>
+    <t>B01CKQP9NO</t>
+  </si>
+  <si>
+    <t>B0BSHGP9X9</t>
+  </si>
+  <si>
+    <t>B001652LO6</t>
+  </si>
+  <si>
+    <t>B0CT467P7P</t>
+  </si>
+  <si>
+    <t>B0BSHHP4Y5</t>
+  </si>
+  <si>
+    <t>B07GJHLSJX</t>
+  </si>
+  <si>
+    <t>B0777WQXKH</t>
+  </si>
+  <si>
     <t>B0BDL9LKSZ</t>
   </si>
   <si>
+    <t>B0BJM4319X</t>
+  </si>
+  <si>
+    <t>B004JRWDQ4</t>
+  </si>
+  <si>
+    <t>B07QSWJM4V</t>
+  </si>
+  <si>
+    <t>B06XTP3XD2</t>
+  </si>
+  <si>
+    <t>B016DWUYMM</t>
+  </si>
+  <si>
+    <t>B002YHU9LC</t>
+  </si>
+  <si>
+    <t>B0013JSV62</t>
+  </si>
+  <si>
+    <t>B001F51YAO</t>
+  </si>
+  <si>
     <t>B0BDT66WCR</t>
   </si>
   <si>
+    <t>B0CGVVWRLS</t>
+  </si>
+  <si>
     <t>B000CIXMKA</t>
   </si>
   <si>
     <t>B002LFGNSK</t>
   </si>
   <si>
+    <t>B0785GBLS9</t>
+  </si>
+  <si>
+    <t>B077WW19GN</t>
+  </si>
+  <si>
+    <t>B0BYFYRRY9</t>
+  </si>
+  <si>
     <t>B07B32D5BF</t>
   </si>
   <si>
@@ -142,18 +457,48 @@
     <t>B06ZZH82TF</t>
   </si>
   <si>
+    <t>B0866B5N6Q</t>
+  </si>
+  <si>
+    <t>B0787CVDQR</t>
+  </si>
+  <si>
+    <t>B07CY5B7PK</t>
+  </si>
+  <si>
     <t>B07CY9GXJF</t>
   </si>
   <si>
+    <t>B0787NHP3Z</t>
+  </si>
+  <si>
+    <t>B003NCEBQ6</t>
+  </si>
+  <si>
     <t>B084LMQ76W</t>
   </si>
   <si>
     <t>B0CK556WC7</t>
   </si>
   <si>
+    <t>B0010H5JXA</t>
+  </si>
+  <si>
+    <t>B0BSHHLHH1</t>
+  </si>
+  <si>
     <t>B071Y7BBWT</t>
   </si>
   <si>
+    <t>B0BSHH4QYV</t>
+  </si>
+  <si>
+    <t>B0BSHG5GJ8</t>
+  </si>
+  <si>
+    <t>B0BSHGXQXS</t>
+  </si>
+  <si>
     <t>B0BSHG7F7M</t>
   </si>
   <si>
@@ -163,6 +508,9 @@
     <t>B00568B1HW</t>
   </si>
   <si>
+    <t>B00L9IJL8E</t>
+  </si>
+  <si>
     <t>B089C33MDN</t>
   </si>
   <si>
@@ -178,6 +526,21 @@
     <t>B003YHMN6K</t>
   </si>
   <si>
+    <t>B0FFCKGB1K</t>
+  </si>
+  <si>
+    <t>B0DMS53VW4</t>
+  </si>
+  <si>
+    <t>B00017L1TG</t>
+  </si>
+  <si>
+    <t>B0CVLFS638</t>
+  </si>
+  <si>
+    <t>B0FBT141JZ</t>
+  </si>
+  <si>
     <t>B01LY3JI7T</t>
   </si>
   <si>
@@ -194,6 +557,9 @@
   </si>
   <si>
     <t>B0DMSDMGM6</t>
+  </si>
+  <si>
+    <t>B0CVLG85PM</t>
   </si>
 </sst>
 </file>
@@ -551,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,13 +948,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>-87.73999999999999</v>
+        <v>-190.07</v>
       </c>
       <c r="D2">
-        <v>39.23</v>
+        <v>-34.7</v>
       </c>
       <c r="E2">
-        <v>126.97</v>
+        <v>155.37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -599,13 +965,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>-43.04</v>
+        <v>-87.73999999999999</v>
       </c>
       <c r="D3">
         <v>39.23</v>
       </c>
       <c r="E3">
-        <v>82.27</v>
+        <v>126.97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -616,13 +982,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>-40.53</v>
+        <v>-43.12</v>
       </c>
       <c r="D4">
         <v>39.23</v>
       </c>
       <c r="E4">
-        <v>79.75999999999999</v>
+        <v>82.34999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -633,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-39.1</v>
+        <v>-40.53</v>
       </c>
       <c r="D5">
-        <v>25.2</v>
+        <v>39.23</v>
       </c>
       <c r="E5">
-        <v>64.3</v>
+        <v>79.75999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -650,13 +1016,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>-40.81</v>
+        <v>-39.04</v>
       </c>
       <c r="D6">
-        <v>14.04</v>
+        <v>25.2</v>
       </c>
       <c r="E6">
-        <v>54.85</v>
+        <v>64.23999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -667,13 +1033,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-40.76</v>
       </c>
       <c r="D7">
-        <v>49.81</v>
+        <v>14.04</v>
       </c>
       <c r="E7">
-        <v>49.81</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -684,13 +1050,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>-35.16</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>14.03</v>
+        <v>49.81</v>
       </c>
       <c r="E8">
-        <v>49.19</v>
+        <v>49.81</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -701,13 +1067,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-35.08</v>
       </c>
       <c r="D9">
-        <v>42.03</v>
+        <v>14.03</v>
       </c>
       <c r="E9">
-        <v>42.03</v>
+        <v>49.11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -721,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>39.23</v>
+        <v>42.03</v>
       </c>
       <c r="E10">
-        <v>39.23</v>
+        <v>42.03</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -735,13 +1101,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>-15.42</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>19.94</v>
+        <v>42.03</v>
       </c>
       <c r="E11">
-        <v>35.36</v>
+        <v>42.03</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -752,13 +1118,13 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>8.859999999999999</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>43.46</v>
+        <v>42.03</v>
       </c>
       <c r="E12">
-        <v>34.6</v>
+        <v>42.03</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>31.01</v>
+        <v>39.23</v>
       </c>
       <c r="E13">
-        <v>31.01</v>
+        <v>39.23</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -786,13 +1152,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-15.42</v>
       </c>
       <c r="D14">
-        <v>30.13</v>
+        <v>19.94</v>
       </c>
       <c r="E14">
-        <v>30.13</v>
+        <v>35.36</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -803,13 +1169,13 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>-5.2</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D15">
-        <v>24.59</v>
+        <v>43.46</v>
       </c>
       <c r="E15">
-        <v>29.79</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -823,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>29.24</v>
+        <v>34.48</v>
       </c>
       <c r="E16">
-        <v>29.24</v>
+        <v>34.48</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -837,13 +1203,13 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>-14.21</v>
+        <v>-2.5</v>
       </c>
       <c r="D17">
-        <v>14.01</v>
+        <v>29.87</v>
       </c>
       <c r="E17">
-        <v>28.22</v>
+        <v>32.37</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -857,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>27.08</v>
+        <v>31.56</v>
       </c>
       <c r="E18">
-        <v>27.08</v>
+        <v>31.56</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -874,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>26.6</v>
+        <v>31.01</v>
       </c>
       <c r="E19">
-        <v>26.6</v>
+        <v>31.01</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -891,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>26.26</v>
+        <v>30.83</v>
       </c>
       <c r="E20">
-        <v>26.26</v>
+        <v>30.83</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -908,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>25.77</v>
+        <v>30.77</v>
       </c>
       <c r="E21">
-        <v>25.77</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -925,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>23.03</v>
+        <v>30.13</v>
       </c>
       <c r="E22">
-        <v>23.03</v>
+        <v>30.13</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -939,13 +1305,13 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-5.2</v>
       </c>
       <c r="D23">
-        <v>22.62</v>
+        <v>24.59</v>
       </c>
       <c r="E23">
-        <v>22.62</v>
+        <v>29.79</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -956,13 +1322,13 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>-8.1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>13.78</v>
+        <v>29.59</v>
       </c>
       <c r="E24">
-        <v>21.88</v>
+        <v>29.59</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -973,13 +1339,13 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>8.43</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>28.02</v>
+        <v>29.27</v>
       </c>
       <c r="E25">
-        <v>19.59</v>
+        <v>29.27</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -993,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>19.2</v>
+        <v>29.24</v>
       </c>
       <c r="E26">
-        <v>19.2</v>
+        <v>29.24</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1010,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>19.01</v>
+        <v>28.57</v>
       </c>
       <c r="E27">
-        <v>19.01</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1024,13 +1390,13 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>10.66</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>27.69</v>
+        <v>28.57</v>
       </c>
       <c r="E28">
-        <v>17.03</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1041,13 +1407,13 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.27</v>
+        <v>-14.22</v>
       </c>
       <c r="D29">
-        <v>19.94</v>
+        <v>14.01</v>
       </c>
       <c r="E29">
-        <v>16.67</v>
+        <v>28.23</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1058,13 +1424,13 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>25.82</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>42.03</v>
+        <v>27.93</v>
       </c>
       <c r="E30">
-        <v>16.21</v>
+        <v>27.93</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1075,13 +1441,13 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>-1.36</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>14.48</v>
+        <v>27.93</v>
       </c>
       <c r="E31">
-        <v>15.84</v>
+        <v>27.93</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1092,13 +1458,13 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>10.12</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>25.2</v>
+        <v>27.8</v>
       </c>
       <c r="E32">
-        <v>15.08</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1112,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>14.35</v>
+        <v>27.38</v>
       </c>
       <c r="E33">
-        <v>14.35</v>
+        <v>27.38</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1129,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>14.26</v>
+        <v>27.08</v>
       </c>
       <c r="E34">
-        <v>14.26</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1146,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>14.22</v>
+        <v>27.03</v>
       </c>
       <c r="E35">
-        <v>14.22</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1163,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>14.18</v>
+        <v>26.8</v>
       </c>
       <c r="E36">
-        <v>14.18</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1180,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>14.17</v>
+        <v>26.71</v>
       </c>
       <c r="E37">
-        <v>14.17</v>
+        <v>26.71</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1197,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>14.13</v>
+        <v>26.6</v>
       </c>
       <c r="E38">
-        <v>14.13</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1214,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>14.05</v>
+        <v>26.26</v>
       </c>
       <c r="E39">
-        <v>14.05</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1228,13 +1594,13 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>11.71</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>25.31</v>
+        <v>25.91</v>
       </c>
       <c r="E40">
-        <v>13.6</v>
+        <v>25.91</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1248,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>13.48</v>
+        <v>25.78</v>
       </c>
       <c r="E41">
-        <v>13.48</v>
+        <v>25.78</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1265,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>13.13</v>
+        <v>25.78</v>
       </c>
       <c r="E42">
-        <v>13.13</v>
+        <v>25.78</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1282,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>12.11</v>
+        <v>25.78</v>
       </c>
       <c r="E43">
-        <v>12.11</v>
+        <v>25.78</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1296,13 +1662,13 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>8.76</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>19.06</v>
+        <v>25.77</v>
       </c>
       <c r="E44">
-        <v>10.3</v>
+        <v>25.77</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1313,13 +1679,13 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>5.53</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>14.56</v>
+        <v>25.65</v>
       </c>
       <c r="E45">
-        <v>9.030000000000001</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1330,13 +1696,13 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>5.62</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>14.3</v>
+        <v>25.52</v>
       </c>
       <c r="E46">
-        <v>8.68</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1347,13 +1713,13 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>8.619999999999999</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>14.01</v>
+        <v>25.29</v>
       </c>
       <c r="E47">
-        <v>5.390000000000001</v>
+        <v>25.29</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1364,13 +1730,13 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>8.93</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>14.21</v>
+        <v>25.2</v>
       </c>
       <c r="E48">
-        <v>5.280000000000001</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1381,13 +1747,13 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>9.42</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>14.45</v>
+        <v>25.2</v>
       </c>
       <c r="E49">
-        <v>5.029999999999999</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1398,13 +1764,13 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>10.89</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>14.48</v>
+        <v>24.85</v>
       </c>
       <c r="E50">
-        <v>3.59</v>
+        <v>24.85</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1415,13 +1781,13 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>17.11</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>19.75</v>
+        <v>24.59</v>
       </c>
       <c r="E51">
-        <v>2.640000000000001</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1432,13 +1798,13 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>38.91</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>40.59</v>
+        <v>24.14</v>
       </c>
       <c r="E52">
-        <v>1.68</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1449,13 +1815,13 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>21.57</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>23.08</v>
+        <v>23.8</v>
       </c>
       <c r="E53">
-        <v>1.510000000000002</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1466,13 +1832,13 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>13.48</v>
+        <v>23.41</v>
       </c>
       <c r="E54">
-        <v>1.18</v>
+        <v>23.41</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1483,13 +1849,13 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>24.18</v>
+        <v>23.3</v>
       </c>
       <c r="E55">
-        <v>0.6799999999999997</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1500,13 +1866,2087 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>41.37</v>
+        <v>0</v>
       </c>
       <c r="D56">
+        <v>23.05</v>
+      </c>
+      <c r="E56">
+        <v>23.05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>23.03</v>
+      </c>
+      <c r="E57">
+        <v>23.03</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>23.03</v>
+      </c>
+      <c r="E58">
+        <v>23.03</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>23.02</v>
+      </c>
+      <c r="E59">
+        <v>23.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>23.02</v>
+      </c>
+      <c r="E60">
+        <v>23.02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>23</v>
+      </c>
+      <c r="E61">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>22.98</v>
+      </c>
+      <c r="E62">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>22.62</v>
+      </c>
+      <c r="E63">
+        <v>22.62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>22.34</v>
+      </c>
+      <c r="E64">
+        <v>22.34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>21.95</v>
+      </c>
+      <c r="E65">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66">
+        <v>-8.1</v>
+      </c>
+      <c r="D66">
+        <v>13.78</v>
+      </c>
+      <c r="E66">
+        <v>21.88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>21.67</v>
+      </c>
+      <c r="E67">
+        <v>21.67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>21.67</v>
+      </c>
+      <c r="E68">
+        <v>21.67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>21.48</v>
+      </c>
+      <c r="E69">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>20.91</v>
+      </c>
+      <c r="E70">
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>20.84</v>
+      </c>
+      <c r="E71">
+        <v>20.84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>20.79</v>
+      </c>
+      <c r="E72">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73">
+        <v>7.42</v>
+      </c>
+      <c r="D73">
+        <v>28.02</v>
+      </c>
+      <c r="E73">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>20.29</v>
+      </c>
+      <c r="E74">
+        <v>20.29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>19.4</v>
+      </c>
+      <c r="E75">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>19.22</v>
+      </c>
+      <c r="E76">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>19.2</v>
+      </c>
+      <c r="E77">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>19.06</v>
+      </c>
+      <c r="E78">
+        <v>19.06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>19.06</v>
+      </c>
+      <c r="E79">
+        <v>19.06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>19.01</v>
+      </c>
+      <c r="E80">
+        <v>19.01</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>19.01</v>
+      </c>
+      <c r="E81">
+        <v>19.01</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>18.81</v>
+      </c>
+      <c r="E82">
+        <v>18.81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>18.8</v>
+      </c>
+      <c r="E83">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>18.33</v>
+      </c>
+      <c r="E84">
+        <v>18.33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>18.11</v>
+      </c>
+      <c r="E85">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>17.66</v>
+      </c>
+      <c r="E86">
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>17.16</v>
+      </c>
+      <c r="E87">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>10.65</v>
+      </c>
+      <c r="D88">
+        <v>27.69</v>
+      </c>
+      <c r="E88">
+        <v>17.04</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>16.94</v>
+      </c>
+      <c r="E89">
+        <v>16.94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>16.86</v>
+      </c>
+      <c r="E90">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>16.86</v>
+      </c>
+      <c r="E91">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>16.7</v>
+      </c>
+      <c r="E92">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93">
+        <v>3.3</v>
+      </c>
+      <c r="D93">
+        <v>19.94</v>
+      </c>
+      <c r="E93">
+        <v>16.64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>16.6</v>
+      </c>
+      <c r="E94">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>16.58</v>
+      </c>
+      <c r="E95">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>16.58</v>
+      </c>
+      <c r="E96">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>16.58</v>
+      </c>
+      <c r="E97">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>16.58</v>
+      </c>
+      <c r="E98">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>16.55</v>
+      </c>
+      <c r="E99">
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>16.47</v>
+      </c>
+      <c r="E100">
+        <v>16.47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>16.31</v>
+      </c>
+      <c r="E101">
+        <v>16.31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>16.24</v>
+      </c>
+      <c r="E102">
+        <v>16.24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>16.24</v>
+      </c>
+      <c r="E103">
+        <v>16.24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>16.24</v>
+      </c>
+      <c r="E104">
+        <v>16.24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105">
+        <v>25.82</v>
+      </c>
+      <c r="D105">
         <v>42.03</v>
       </c>
-      <c r="E56">
-        <v>0.6600000000000037</v>
+      <c r="E105">
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>16.21</v>
+      </c>
+      <c r="E106">
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>16.16</v>
+      </c>
+      <c r="E107">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>16.16</v>
+      </c>
+      <c r="E108">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>16.16</v>
+      </c>
+      <c r="E109">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>16.16</v>
+      </c>
+      <c r="E110">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111">
+        <v>-1.35</v>
+      </c>
+      <c r="D111">
+        <v>14.48</v>
+      </c>
+      <c r="E111">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>15.8</v>
+      </c>
+      <c r="E112">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>15.58</v>
+      </c>
+      <c r="E113">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>15.51</v>
+      </c>
+      <c r="E114">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>15.48</v>
+      </c>
+      <c r="E115">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>15.44</v>
+      </c>
+      <c r="E116">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>15.44</v>
+      </c>
+      <c r="E117">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>15.38</v>
+      </c>
+      <c r="E118">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>15.32</v>
+      </c>
+      <c r="E119">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>15.29</v>
+      </c>
+      <c r="E120">
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>15.26</v>
+      </c>
+      <c r="E121">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>15.23</v>
+      </c>
+      <c r="E122">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>15.19</v>
+      </c>
+      <c r="E123">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>15.17</v>
+      </c>
+      <c r="E124">
+        <v>15.17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125">
+        <v>10.18</v>
+      </c>
+      <c r="D125">
+        <v>25.2</v>
+      </c>
+      <c r="E125">
+        <v>15.02</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>14.84</v>
+      </c>
+      <c r="E126">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>14.71</v>
+      </c>
+      <c r="E127">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128">
+        <v>1.91</v>
+      </c>
+      <c r="D128">
+        <v>16.55</v>
+      </c>
+      <c r="E128">
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>14.58</v>
+      </c>
+      <c r="E129">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>14.42</v>
+      </c>
+      <c r="E130">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>14.41</v>
+      </c>
+      <c r="E131">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>14.36</v>
+      </c>
+      <c r="E132">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>14.36</v>
+      </c>
+      <c r="E133">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>14.35</v>
+      </c>
+      <c r="E134">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>14.28</v>
+      </c>
+      <c r="E135">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>14.26</v>
+      </c>
+      <c r="E136">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>14.22</v>
+      </c>
+      <c r="E137">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>14.2</v>
+      </c>
+      <c r="E138">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>14.19</v>
+      </c>
+      <c r="E139">
+        <v>14.19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>14.18</v>
+      </c>
+      <c r="E140">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>14.18</v>
+      </c>
+      <c r="E141">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>14.17</v>
+      </c>
+      <c r="E142">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>14.13</v>
+      </c>
+      <c r="E143">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>14.13</v>
+      </c>
+      <c r="E144">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>14.11</v>
+      </c>
+      <c r="E145">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>14.05</v>
+      </c>
+      <c r="E146">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>14.05</v>
+      </c>
+      <c r="E147">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>14.04</v>
+      </c>
+      <c r="E148">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>13.81</v>
+      </c>
+      <c r="E149">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150">
+        <v>11.71</v>
+      </c>
+      <c r="D150">
+        <v>25.31</v>
+      </c>
+      <c r="E150">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>13.48</v>
+      </c>
+      <c r="E151">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>13.26</v>
+      </c>
+      <c r="E152">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>13.14</v>
+      </c>
+      <c r="E153">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>13.13</v>
+      </c>
+      <c r="E154">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>13.13</v>
+      </c>
+      <c r="E155">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>13.09</v>
+      </c>
+      <c r="E156">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>12.39</v>
+      </c>
+      <c r="E157">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>161</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>12.11</v>
+      </c>
+      <c r="E158">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159">
+        <v>8.76</v>
+      </c>
+      <c r="D159">
+        <v>19.06</v>
+      </c>
+      <c r="E159">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>163</v>
+      </c>
+      <c r="C160">
+        <v>5.53</v>
+      </c>
+      <c r="D160">
+        <v>14.56</v>
+      </c>
+      <c r="E160">
+        <v>9.030000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161">
+        <v>19.45</v>
+      </c>
+      <c r="D161">
+        <v>28.47</v>
+      </c>
+      <c r="E161">
+        <v>9.020000000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162">
+        <v>5.62</v>
+      </c>
+      <c r="D162">
+        <v>14.3</v>
+      </c>
+      <c r="E162">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
+      <c r="C163">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="D163">
+        <v>14.01</v>
+      </c>
+      <c r="E163">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>167</v>
+      </c>
+      <c r="C164">
+        <v>8.93</v>
+      </c>
+      <c r="D164">
+        <v>14.21</v>
+      </c>
+      <c r="E164">
+        <v>5.280000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
+      <c r="C165">
+        <v>9.42</v>
+      </c>
+      <c r="D165">
+        <v>14.45</v>
+      </c>
+      <c r="E165">
+        <v>5.029999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166">
+        <v>10.42</v>
+      </c>
+      <c r="D166">
+        <v>14.48</v>
+      </c>
+      <c r="E166">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>170</v>
+      </c>
+      <c r="C167">
+        <v>17.25</v>
+      </c>
+      <c r="D167">
+        <v>20.58</v>
+      </c>
+      <c r="E167">
+        <v>3.330000000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>171</v>
+      </c>
+      <c r="C168">
+        <v>40.31</v>
+      </c>
+      <c r="D168">
+        <v>43.46</v>
+      </c>
+      <c r="E168">
+        <v>3.149999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>172</v>
+      </c>
+      <c r="C169">
+        <v>11.12</v>
+      </c>
+      <c r="D169">
+        <v>13.99</v>
+      </c>
+      <c r="E169">
+        <v>2.870000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>173</v>
+      </c>
+      <c r="C170">
+        <v>-13.73</v>
+      </c>
+      <c r="D170">
+        <v>-11.28</v>
+      </c>
+      <c r="E170">
+        <v>2.450000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>174</v>
+      </c>
+      <c r="C171">
+        <v>15.75</v>
+      </c>
+      <c r="D171">
+        <v>18.12</v>
+      </c>
+      <c r="E171">
+        <v>2.370000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>175</v>
+      </c>
+      <c r="C172">
+        <v>17.39</v>
+      </c>
+      <c r="D172">
+        <v>19.75</v>
+      </c>
+      <c r="E172">
+        <v>2.359999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173">
+        <v>38.9</v>
+      </c>
+      <c r="D173">
+        <v>40.59</v>
+      </c>
+      <c r="E173">
+        <v>1.689999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>177</v>
+      </c>
+      <c r="C174">
+        <v>21.56</v>
+      </c>
+      <c r="D174">
+        <v>23.08</v>
+      </c>
+      <c r="E174">
+        <v>1.520000000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>178</v>
+      </c>
+      <c r="C175">
+        <v>12.29</v>
+      </c>
+      <c r="D175">
+        <v>13.48</v>
+      </c>
+      <c r="E175">
+        <v>1.190000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>179</v>
+      </c>
+      <c r="C176">
+        <v>23.5</v>
+      </c>
+      <c r="D176">
+        <v>24.18</v>
+      </c>
+      <c r="E176">
+        <v>0.6799999999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177">
+        <v>41.36</v>
+      </c>
+      <c r="D177">
+        <v>42.03</v>
+      </c>
+      <c r="E177">
+        <v>0.6700000000000017</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>181</v>
+      </c>
+      <c r="C178">
+        <v>21.64</v>
+      </c>
+      <c r="D178">
+        <v>22.28</v>
+      </c>
+      <c r="E178">
+        <v>0.6400000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/GM_Underperformers_ten_west.xlsx
+++ b/GM_Underperformers_ten_west.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>ASIN</t>
   </si>
@@ -55,15 +55,15 @@
     <t>B001F79LKW</t>
   </si>
   <si>
+    <t>B0DMS5V6R8</t>
+  </si>
+  <si>
+    <t>B0DMSGQ61F</t>
+  </si>
+  <si>
     <t>B0DMRTV6HM</t>
   </si>
   <si>
-    <t>B0DMS5V6R8</t>
-  </si>
-  <si>
-    <t>B0DMSGQ61F</t>
-  </si>
-  <si>
     <t>B0DJYL82BK</t>
   </si>
   <si>
@@ -106,21 +106,21 @@
     <t>B0BXVM72LM</t>
   </si>
   <si>
+    <t>B0DWBNLNF3</t>
+  </si>
+  <si>
     <t>B0DWBC1J93</t>
   </si>
   <si>
-    <t>B0DWBNLNF3</t>
-  </si>
-  <si>
     <t>B08746GTC8</t>
   </si>
   <si>
+    <t>B01DZIESAQ</t>
+  </si>
+  <si>
     <t>B01MQCP65M</t>
   </si>
   <si>
-    <t>B01DZIESAQ</t>
-  </si>
-  <si>
     <t>B0CCSWJ337</t>
   </si>
   <si>
@@ -148,15 +148,15 @@
     <t>B0CDZZFJCH</t>
   </si>
   <si>
+    <t>B0FH32Z7JT</t>
+  </si>
+  <si>
+    <t>B0FH33PX91</t>
+  </si>
+  <si>
     <t>B0FH324VCY</t>
   </si>
   <si>
-    <t>B0FH32Z7JT</t>
-  </si>
-  <si>
-    <t>B0FH33PX91</t>
-  </si>
-  <si>
     <t>B0CCSZCBBQ</t>
   </si>
   <si>
@@ -169,12 +169,12 @@
     <t>B0BFJLQKRN</t>
   </si>
   <si>
+    <t>B0BV19KCFW</t>
+  </si>
+  <si>
     <t>B0BV18SD23</t>
   </si>
   <si>
-    <t>B0BV19KCFW</t>
-  </si>
-  <si>
     <t>B0B75KHMZK</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>B09TTRF1BW</t>
   </si>
   <si>
+    <t>B09GFG7VYL</t>
+  </si>
+  <si>
     <t>B09435KBH4</t>
   </si>
   <si>
-    <t>B09GFG7VYL</t>
-  </si>
-  <si>
     <t>B07KMYGXB9</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>B00S33A6AU</t>
   </si>
   <si>
+    <t>B0D68TC7RG</t>
+  </si>
+  <si>
     <t>B0D68DLFHD</t>
   </si>
   <si>
-    <t>B0D68TC7RG</t>
-  </si>
-  <si>
     <t>B0FFD2CF3B</t>
   </si>
   <si>
@@ -280,6 +280,12 @@
     <t>B0CDZZLWF7</t>
   </si>
   <si>
+    <t>B00KBO1DBU</t>
+  </si>
+  <si>
+    <t>B06XRS1T2Y</t>
+  </si>
+  <si>
     <t>B09YHNZ16J</t>
   </si>
   <si>
@@ -295,6 +301,9 @@
     <t>B0BVXYFD1R</t>
   </si>
   <si>
+    <t>B004TS22WI</t>
+  </si>
+  <si>
     <t>B0D68VGCFT</t>
   </si>
   <si>
@@ -313,12 +322,12 @@
     <t>B0CJLYXTL2</t>
   </si>
   <si>
+    <t>B0CNH94DHZ</t>
+  </si>
+  <si>
     <t>B0CNH9X99J</t>
   </si>
   <si>
-    <t>B0CNH94DHZ</t>
-  </si>
-  <si>
     <t>B0CNH8L731</t>
   </si>
   <si>
@@ -340,27 +349,30 @@
     <t>B07FNNS1NQ</t>
   </si>
   <si>
+    <t>B0CMW9BVGJ</t>
+  </si>
+  <si>
     <t>B0DMRV12HR</t>
   </si>
   <si>
-    <t>B0CMW9BVGJ</t>
+    <t>B0CJL47JNK</t>
   </si>
   <si>
     <t>B0CNH7JYNW</t>
   </si>
   <si>
+    <t>B0CNH85T4K</t>
+  </si>
+  <si>
     <t>B0CNH8P1XG</t>
   </si>
   <si>
-    <t>B0CNH85T4K</t>
-  </si>
-  <si>
-    <t>B0CJL47JNK</t>
-  </si>
-  <si>
     <t>B002IOO41W</t>
   </si>
   <si>
+    <t>B002YGGRSW</t>
+  </si>
+  <si>
     <t>B07GK231JH</t>
   </si>
   <si>
@@ -373,12 +385,12 @@
     <t>B07QSYGD75</t>
   </si>
   <si>
+    <t>B0BSHJ3D24</t>
+  </si>
+  <si>
     <t>B07QNS6M6D</t>
   </si>
   <si>
-    <t>B0BSHJ3D24</t>
-  </si>
-  <si>
     <t>B01CKQP9NO</t>
   </si>
   <si>
@@ -391,6 +403,9 @@
     <t>B0CT467P7P</t>
   </si>
   <si>
+    <t>B002YGM25O</t>
+  </si>
+  <si>
     <t>B0BSHHP4Y5</t>
   </si>
   <si>
@@ -421,15 +436,18 @@
     <t>B002YHU9LC</t>
   </si>
   <si>
+    <t>B001F51YAO</t>
+  </si>
+  <si>
     <t>B0013JSV62</t>
   </si>
   <si>
-    <t>B001F51YAO</t>
-  </si>
-  <si>
     <t>B0BDT66WCR</t>
   </si>
   <si>
+    <t>B0CGVV5FFR</t>
+  </si>
+  <si>
     <t>B0CGVVWRLS</t>
   </si>
   <si>
@@ -445,12 +463,12 @@
     <t>B077WW19GN</t>
   </si>
   <si>
+    <t>B07B32D5BF</t>
+  </si>
+  <si>
     <t>B0BYFYRRY9</t>
   </si>
   <si>
-    <t>B07B32D5BF</t>
-  </si>
-  <si>
     <t>B0892QY3GT</t>
   </si>
   <si>
@@ -463,10 +481,13 @@
     <t>B0787CVDQR</t>
   </si>
   <si>
+    <t>B07CY9GXJF</t>
+  </si>
+  <si>
     <t>B07CY5B7PK</t>
   </si>
   <si>
-    <t>B07CY9GXJF</t>
+    <t>B07CYFFXFT</t>
   </si>
   <si>
     <t>B0787NHP3Z</t>
@@ -478,9 +499,21 @@
     <t>B084LMQ76W</t>
   </si>
   <si>
+    <t>B072352RB2</t>
+  </si>
+  <si>
     <t>B0CK556WC7</t>
   </si>
   <si>
+    <t>B0BL56DXNX</t>
+  </si>
+  <si>
+    <t>B00024JRC6</t>
+  </si>
+  <si>
+    <t>B00C8RJ3WE</t>
+  </si>
+  <si>
     <t>B0010H5JXA</t>
   </si>
   <si>
@@ -499,12 +532,24 @@
     <t>B0BSHGXQXS</t>
   </si>
   <si>
+    <t>B09RJL7R46</t>
+  </si>
+  <si>
     <t>B0BSHG7F7M</t>
   </si>
   <si>
+    <t>B0009YS9D2</t>
+  </si>
+  <si>
+    <t>B004TWWPMG</t>
+  </si>
+  <si>
     <t>B084LMSLRY</t>
   </si>
   <si>
+    <t>B096GB6PF1</t>
+  </si>
+  <si>
     <t>B00568B1HW</t>
   </si>
   <si>
@@ -535,13 +580,13 @@
     <t>B00017L1TG</t>
   </si>
   <si>
+    <t>B01LY3JI7T</t>
+  </si>
+  <si>
     <t>B0CVLFS638</t>
   </si>
   <si>
     <t>B0FBT141JZ</t>
-  </si>
-  <si>
-    <t>B01LY3JI7T</t>
   </si>
   <si>
     <t>B0BRZ32RSG</t>
@@ -917,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E178"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2362,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>18.11</v>
+        <v>18.2</v>
       </c>
       <c r="E85">
-        <v>18.11</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2379,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>17.66</v>
+        <v>18.2</v>
       </c>
       <c r="E86">
-        <v>17.66</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2396,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>17.16</v>
+        <v>18.11</v>
       </c>
       <c r="E87">
-        <v>17.16</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2410,13 +2455,13 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>10.65</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>27.69</v>
+        <v>17.66</v>
       </c>
       <c r="E88">
-        <v>17.04</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2430,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>16.94</v>
+        <v>17.16</v>
       </c>
       <c r="E89">
-        <v>16.94</v>
+        <v>17.16</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2444,13 +2489,13 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>10.65</v>
       </c>
       <c r="D90">
-        <v>16.86</v>
+        <v>27.69</v>
       </c>
       <c r="E90">
-        <v>16.86</v>
+        <v>17.04</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2464,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>16.86</v>
+        <v>16.94</v>
       </c>
       <c r="E91">
-        <v>16.86</v>
+        <v>16.94</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2481,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>16.7</v>
+        <v>16.91</v>
       </c>
       <c r="E92">
-        <v>16.7</v>
+        <v>16.91</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2495,13 +2540,13 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>19.94</v>
+        <v>16.86</v>
       </c>
       <c r="E93">
-        <v>16.64</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2515,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>16.6</v>
+        <v>16.86</v>
       </c>
       <c r="E94">
-        <v>16.6</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2532,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>16.58</v>
+        <v>16.7</v>
       </c>
       <c r="E95">
-        <v>16.58</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2546,13 +2591,13 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D96">
-        <v>16.58</v>
+        <v>19.94</v>
       </c>
       <c r="E96">
-        <v>16.58</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2566,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>16.58</v>
+        <v>16.6</v>
       </c>
       <c r="E97">
-        <v>16.58</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2600,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>16.55</v>
+        <v>16.58</v>
       </c>
       <c r="E99">
-        <v>16.55</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2617,10 +2662,10 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>16.47</v>
+        <v>16.58</v>
       </c>
       <c r="E100">
-        <v>16.47</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2634,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>16.31</v>
+        <v>16.58</v>
       </c>
       <c r="E101">
-        <v>16.31</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2651,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>16.24</v>
+        <v>16.55</v>
       </c>
       <c r="E102">
-        <v>16.24</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2668,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>16.24</v>
+        <v>16.47</v>
       </c>
       <c r="E103">
-        <v>16.24</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2685,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>16.24</v>
+        <v>16.31</v>
       </c>
       <c r="E104">
-        <v>16.24</v>
+        <v>16.31</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2699,13 +2744,13 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>25.82</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>42.03</v>
+        <v>16.24</v>
       </c>
       <c r="E105">
-        <v>16.21</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2719,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>16.21</v>
+        <v>16.24</v>
       </c>
       <c r="E106">
-        <v>16.21</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2736,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>16.16</v>
+        <v>16.24</v>
       </c>
       <c r="E107">
-        <v>16.16</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2753,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>16.16</v>
+        <v>16.21</v>
       </c>
       <c r="E108">
-        <v>16.16</v>
+        <v>16.21</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2767,13 +2812,13 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>25.82</v>
       </c>
       <c r="D109">
-        <v>16.16</v>
+        <v>42.03</v>
       </c>
       <c r="E109">
-        <v>16.16</v>
+        <v>16.21</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2801,13 +2846,13 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>-1.35</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>14.48</v>
+        <v>16.16</v>
       </c>
       <c r="E111">
-        <v>15.83</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2821,10 +2866,10 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>15.8</v>
+        <v>16.16</v>
       </c>
       <c r="E112">
-        <v>15.8</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2838,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>15.58</v>
+        <v>16.16</v>
       </c>
       <c r="E113">
-        <v>15.58</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2852,13 +2897,13 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>-1.35</v>
       </c>
       <c r="D114">
-        <v>15.51</v>
+        <v>14.48</v>
       </c>
       <c r="E114">
-        <v>15.51</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2872,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>15.48</v>
+        <v>15.82</v>
       </c>
       <c r="E115">
-        <v>15.48</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2889,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>15.44</v>
+        <v>15.8</v>
       </c>
       <c r="E116">
-        <v>15.44</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2906,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>15.44</v>
+        <v>15.58</v>
       </c>
       <c r="E117">
-        <v>15.44</v>
+        <v>15.58</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2923,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>15.38</v>
+        <v>15.51</v>
       </c>
       <c r="E118">
-        <v>15.38</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2940,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>15.32</v>
+        <v>15.48</v>
       </c>
       <c r="E119">
-        <v>15.32</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2957,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>15.29</v>
+        <v>15.44</v>
       </c>
       <c r="E120">
-        <v>15.29</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2974,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>15.26</v>
+        <v>15.44</v>
       </c>
       <c r="E121">
-        <v>15.26</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2991,10 +3036,10 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>15.23</v>
+        <v>15.38</v>
       </c>
       <c r="E122">
-        <v>15.23</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3008,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>15.19</v>
+        <v>15.32</v>
       </c>
       <c r="E123">
-        <v>15.19</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3025,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>15.17</v>
+        <v>15.29</v>
       </c>
       <c r="E124">
-        <v>15.17</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3039,13 +3084,13 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>10.18</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>25.2</v>
+        <v>15.26</v>
       </c>
       <c r="E125">
-        <v>15.02</v>
+        <v>15.26</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3059,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>14.84</v>
+        <v>15.25</v>
       </c>
       <c r="E126">
-        <v>14.84</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3076,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>14.71</v>
+        <v>15.23</v>
       </c>
       <c r="E127">
-        <v>14.71</v>
+        <v>15.23</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3090,13 +3135,13 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>16.55</v>
+        <v>15.19</v>
       </c>
       <c r="E128">
-        <v>14.64</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3110,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>14.58</v>
+        <v>15.17</v>
       </c>
       <c r="E129">
-        <v>14.58</v>
+        <v>15.17</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3124,13 +3169,13 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>10.18</v>
       </c>
       <c r="D130">
-        <v>14.42</v>
+        <v>25.2</v>
       </c>
       <c r="E130">
-        <v>14.42</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3144,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>14.41</v>
+        <v>14.84</v>
       </c>
       <c r="E131">
-        <v>14.41</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3161,10 +3206,10 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>14.36</v>
+        <v>14.71</v>
       </c>
       <c r="E132">
-        <v>14.36</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3175,13 +3220,13 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="D133">
-        <v>14.36</v>
+        <v>16.55</v>
       </c>
       <c r="E133">
-        <v>14.36</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3195,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>14.35</v>
+        <v>14.58</v>
       </c>
       <c r="E134">
-        <v>14.35</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3212,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>14.28</v>
+        <v>14.42</v>
       </c>
       <c r="E135">
-        <v>14.28</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3229,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>14.26</v>
+        <v>14.41</v>
       </c>
       <c r="E136">
-        <v>14.26</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3246,10 +3291,10 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>14.22</v>
+        <v>14.36</v>
       </c>
       <c r="E137">
-        <v>14.22</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3263,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>14.2</v>
+        <v>14.36</v>
       </c>
       <c r="E138">
-        <v>14.2</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3280,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>14.19</v>
+        <v>14.35</v>
       </c>
       <c r="E139">
-        <v>14.19</v>
+        <v>14.35</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3297,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>14.18</v>
+        <v>14.28</v>
       </c>
       <c r="E140">
-        <v>14.18</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3314,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>14.18</v>
+        <v>14.28</v>
       </c>
       <c r="E141">
-        <v>14.18</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3331,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>14.17</v>
+        <v>14.26</v>
       </c>
       <c r="E142">
-        <v>14.17</v>
+        <v>14.26</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3348,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>14.13</v>
+        <v>14.22</v>
       </c>
       <c r="E143">
-        <v>14.13</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3365,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>14.13</v>
+        <v>14.2</v>
       </c>
       <c r="E144">
-        <v>14.13</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3382,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>14.11</v>
+        <v>14.19</v>
       </c>
       <c r="E145">
-        <v>14.11</v>
+        <v>14.19</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3399,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>14.05</v>
+        <v>14.18</v>
       </c>
       <c r="E146">
-        <v>14.05</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3416,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>14.05</v>
+        <v>14.18</v>
       </c>
       <c r="E147">
-        <v>14.05</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3433,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>14.04</v>
+        <v>14.17</v>
       </c>
       <c r="E148">
-        <v>14.04</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3450,10 +3495,10 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>13.81</v>
+        <v>14.13</v>
       </c>
       <c r="E149">
-        <v>13.81</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3464,13 +3509,13 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>11.71</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>25.31</v>
+        <v>14.13</v>
       </c>
       <c r="E150">
-        <v>13.6</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3484,10 +3529,10 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>13.48</v>
+        <v>14.11</v>
       </c>
       <c r="E151">
-        <v>13.48</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3501,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>13.26</v>
+        <v>14.05</v>
       </c>
       <c r="E152">
-        <v>13.26</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3518,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>13.14</v>
+        <v>14.05</v>
       </c>
       <c r="E153">
-        <v>13.14</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3535,10 +3580,10 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>13.13</v>
+        <v>14.05</v>
       </c>
       <c r="E154">
-        <v>13.13</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3552,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>13.13</v>
+        <v>14.04</v>
       </c>
       <c r="E155">
-        <v>13.13</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3569,10 +3614,10 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>13.09</v>
+        <v>13.81</v>
       </c>
       <c r="E156">
-        <v>13.09</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3583,13 +3628,13 @@
         <v>160</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>11.71</v>
       </c>
       <c r="D157">
-        <v>12.39</v>
+        <v>25.31</v>
       </c>
       <c r="E157">
-        <v>12.39</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3603,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>12.11</v>
+        <v>13.49</v>
       </c>
       <c r="E158">
-        <v>12.11</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3617,13 +3662,13 @@
         <v>162</v>
       </c>
       <c r="C159">
-        <v>8.76</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>19.06</v>
+        <v>13.48</v>
       </c>
       <c r="E159">
-        <v>10.3</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3634,13 +3679,13 @@
         <v>163</v>
       </c>
       <c r="C160">
-        <v>5.53</v>
+        <v>0</v>
       </c>
       <c r="D160">
-        <v>14.56</v>
+        <v>13.31</v>
       </c>
       <c r="E160">
-        <v>9.030000000000001</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3651,13 +3696,13 @@
         <v>164</v>
       </c>
       <c r="C161">
-        <v>19.45</v>
+        <v>0</v>
       </c>
       <c r="D161">
-        <v>28.47</v>
+        <v>13.31</v>
       </c>
       <c r="E161">
-        <v>9.020000000000003</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3668,13 +3713,13 @@
         <v>165</v>
       </c>
       <c r="C162">
-        <v>5.62</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
       <c r="E162">
-        <v>8.68</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3685,13 +3730,13 @@
         <v>166</v>
       </c>
       <c r="C163">
-        <v>8.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>14.01</v>
+        <v>13.26</v>
       </c>
       <c r="E163">
-        <v>5.4</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3702,13 +3747,13 @@
         <v>167</v>
       </c>
       <c r="C164">
-        <v>8.93</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>14.21</v>
+        <v>13.14</v>
       </c>
       <c r="E164">
-        <v>5.280000000000001</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3719,13 +3764,13 @@
         <v>168</v>
       </c>
       <c r="C165">
-        <v>9.42</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>14.45</v>
+        <v>13.13</v>
       </c>
       <c r="E165">
-        <v>5.029999999999999</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3736,13 +3781,13 @@
         <v>169</v>
       </c>
       <c r="C166">
-        <v>10.42</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>14.48</v>
+        <v>13.13</v>
       </c>
       <c r="E166">
-        <v>4.06</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3753,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="C167">
-        <v>17.25</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>20.58</v>
+        <v>13.09</v>
       </c>
       <c r="E167">
-        <v>3.330000000000002</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3770,13 +3815,13 @@
         <v>171</v>
       </c>
       <c r="C168">
-        <v>40.31</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>43.46</v>
+        <v>12.39</v>
       </c>
       <c r="E168">
-        <v>3.149999999999999</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3787,13 +3832,13 @@
         <v>172</v>
       </c>
       <c r="C169">
-        <v>11.12</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>13.99</v>
+        <v>12.17</v>
       </c>
       <c r="E169">
-        <v>2.870000000000001</v>
+        <v>12.17</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3804,13 +3849,13 @@
         <v>173</v>
       </c>
       <c r="C170">
-        <v>-13.73</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>-11.28</v>
+        <v>12.11</v>
       </c>
       <c r="E170">
-        <v>2.450000000000001</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3821,13 +3866,13 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>15.75</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>18.12</v>
+        <v>11.75</v>
       </c>
       <c r="E171">
-        <v>2.370000000000001</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3838,13 +3883,13 @@
         <v>175</v>
       </c>
       <c r="C172">
-        <v>17.39</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>19.75</v>
+        <v>10.68</v>
       </c>
       <c r="E172">
-        <v>2.359999999999999</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3855,13 +3900,13 @@
         <v>176</v>
       </c>
       <c r="C173">
-        <v>38.9</v>
+        <v>8.76</v>
       </c>
       <c r="D173">
-        <v>40.59</v>
+        <v>19.06</v>
       </c>
       <c r="E173">
-        <v>1.689999999999998</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3872,13 +3917,13 @@
         <v>177</v>
       </c>
       <c r="C174">
-        <v>21.56</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>23.08</v>
+        <v>10.11</v>
       </c>
       <c r="E174">
-        <v>1.520000000000003</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3889,13 +3934,13 @@
         <v>178</v>
       </c>
       <c r="C175">
-        <v>12.29</v>
+        <v>5.53</v>
       </c>
       <c r="D175">
-        <v>13.48</v>
+        <v>14.56</v>
       </c>
       <c r="E175">
-        <v>1.190000000000001</v>
+        <v>9.030000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3906,13 +3951,13 @@
         <v>179</v>
       </c>
       <c r="C176">
-        <v>23.5</v>
+        <v>19.45</v>
       </c>
       <c r="D176">
-        <v>24.18</v>
+        <v>28.47</v>
       </c>
       <c r="E176">
-        <v>0.6799999999999997</v>
+        <v>9.020000000000003</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3923,13 +3968,13 @@
         <v>180</v>
       </c>
       <c r="C177">
-        <v>41.36</v>
+        <v>5.62</v>
       </c>
       <c r="D177">
-        <v>42.03</v>
+        <v>14.3</v>
       </c>
       <c r="E177">
-        <v>0.6700000000000017</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3940,12 +3985,267 @@
         <v>181</v>
       </c>
       <c r="C178">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="D178">
+        <v>14.01</v>
+      </c>
+      <c r="E178">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179">
+        <v>8.93</v>
+      </c>
+      <c r="D179">
+        <v>14.21</v>
+      </c>
+      <c r="E179">
+        <v>5.280000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>183</v>
+      </c>
+      <c r="C180">
+        <v>9.42</v>
+      </c>
+      <c r="D180">
+        <v>14.45</v>
+      </c>
+      <c r="E180">
+        <v>5.029999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>184</v>
+      </c>
+      <c r="C181">
+        <v>10.42</v>
+      </c>
+      <c r="D181">
+        <v>14.48</v>
+      </c>
+      <c r="E181">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>185</v>
+      </c>
+      <c r="C182">
+        <v>17.25</v>
+      </c>
+      <c r="D182">
+        <v>20.58</v>
+      </c>
+      <c r="E182">
+        <v>3.330000000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
+      <c r="C183">
+        <v>40.31</v>
+      </c>
+      <c r="D183">
+        <v>43.46</v>
+      </c>
+      <c r="E183">
+        <v>3.149999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>187</v>
+      </c>
+      <c r="C184">
+        <v>11.12</v>
+      </c>
+      <c r="D184">
+        <v>13.99</v>
+      </c>
+      <c r="E184">
+        <v>2.870000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
+      <c r="C185">
+        <v>17.26</v>
+      </c>
+      <c r="D185">
+        <v>19.75</v>
+      </c>
+      <c r="E185">
+        <v>2.489999999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>189</v>
+      </c>
+      <c r="C186">
+        <v>-13.73</v>
+      </c>
+      <c r="D186">
+        <v>-11.28</v>
+      </c>
+      <c r="E186">
+        <v>2.450000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
+      <c r="C187">
+        <v>15.75</v>
+      </c>
+      <c r="D187">
+        <v>18.12</v>
+      </c>
+      <c r="E187">
+        <v>2.370000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>191</v>
+      </c>
+      <c r="C188">
+        <v>38.9</v>
+      </c>
+      <c r="D188">
+        <v>40.59</v>
+      </c>
+      <c r="E188">
+        <v>1.689999999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>192</v>
+      </c>
+      <c r="C189">
+        <v>21.56</v>
+      </c>
+      <c r="D189">
+        <v>23.08</v>
+      </c>
+      <c r="E189">
+        <v>1.520000000000003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>193</v>
+      </c>
+      <c r="C190">
+        <v>12.29</v>
+      </c>
+      <c r="D190">
+        <v>13.48</v>
+      </c>
+      <c r="E190">
+        <v>1.190000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C191">
+        <v>23.5</v>
+      </c>
+      <c r="D191">
+        <v>24.18</v>
+      </c>
+      <c r="E191">
+        <v>0.6799999999999997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>195</v>
+      </c>
+      <c r="C192">
+        <v>41.36</v>
+      </c>
+      <c r="D192">
+        <v>42.03</v>
+      </c>
+      <c r="E192">
+        <v>0.6700000000000017</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>196</v>
+      </c>
+      <c r="C193">
         <v>21.64</v>
       </c>
-      <c r="D178">
+      <c r="D193">
         <v>22.28</v>
       </c>
-      <c r="E178">
+      <c r="E193">
         <v>0.6400000000000006</v>
       </c>
     </row>
